--- a/OBALEI4421040.xlsx
+++ b/OBALEI4421040.xlsx
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OBALEI4421040.xlsx
+++ b/OBALEI4421040.xlsx
@@ -62,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2842,8 +2841,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2858,8 +2857,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2874,8 +2873,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2890,8 +2889,8 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2906,8 +2905,8 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2922,8 +2921,8 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
+      <c r="D7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2938,8 +2937,8 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
+      <c r="D8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
